--- a/Documentation/ModelsAnalysis.xlsx
+++ b/Documentation/ModelsAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukan\Downloads\Final\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukan\Downloads\Final\git\ChatBotUsingRAG\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CAF71D-67E2-4AB3-8FD9-01C1368E7D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C3EAA-9845-47CF-89F0-2167A0434299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B183E88F-E184-4A96-95AE-99786194F751}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{B183E88F-E184-4A96-95AE-99786194F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Qs and Answers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
   <si>
     <t>Accuracy</t>
   </si>
@@ -743,42 +743,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> What was the main objective of the study?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which method was used to detect HER‑2/neu amplification in tumor samples?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How many primary breast cancer tumors were included in the initial survey?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What percentage of tumors in the initial survey showed HER‑2/neu amplification?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How is HER‑2/neu amplification related to lymph node involvement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which prognostic factor did HER‑2/neu amplification most closely parallel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What statistical method was employed to compare survival curves?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In the follow‑up study of node‑positive patients, what was the observed amplification rate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How did HER‑2/neu amplification affect patient relapse and overall survival?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where is the HER‑2/neu gene located in the human genome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What control probe was used to ensure equal DNA loading in the Southern blot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What type of gene is HER‑2/neu?</t>
-  </si>
-  <si>
     <t>User Query</t>
   </si>
   <si>
@@ -788,199 +752,33 @@
     <t>Memory Utilization (MB)</t>
   </si>
   <si>
-    <t>The main finding of the study regarding HER-2/neu amplification in breast cancer is that HER-2/neu amplification is associated with a more aggressive form of breast cancer, which may require more aggressive treatment.</t>
-  </si>
-  <si>
-    <t>HER-2/neu gene amplification is strongly associated with lymph node involvement in breast cancer. In fact, high levels of HER-2/neu protein expression in breast cancer cells are often associated with an increased risk of lymph node metastasis. This finding is consistent with previous studies that have linked HER-2/neu gene expression to more aggressive forms of breast cancer.</t>
-  </si>
-  <si>
-    <t>HER-2/neu amplification was detected using a commercial immunohistochemical assay, which is a laboratory test that identifies the presence and level of a protein called HER-2/neu in cancer cells. This method is a common and reliable method for detecting HER-2/neu gene amplification in breast cancer.</t>
-  </si>
-  <si>
-    <t>HER-2/neu is considered an important prognostic factor in breast cancer because it is associated with more aggressive forms of cancer. HER-2/neu gene amplification is also associated with an increased risk of lymph node involvement, which is a marker of more aggressive disease. Additionally, HER-2/neu is a target of several drugs currently used to treat breast cancer, making it an important factor in determining treatment options.</t>
-  </si>
-  <si>
-    <t>Approximately 30% of tumors showed HER-2/neu amplification in the initial survey.</t>
-  </si>
-  <si>
     <t>The HER-2/neu gene is located on chromosome 17.</t>
   </si>
   <si>
-    <t>Identifying HER-2/neu amplification can help guide treatment decisions. For example, individuals with HER-2/neu-positive breast cancer may benefit from targeted therapies that specifically target the gene or protein, while individuals with HER-2/neu-negative breast cancer may be treated with a combination of chemotherapy and targeted therapy. Additionally, individuals with HER-2/neu-negative breast cancer may be candidates for certain clinical trials, while individuals with HER-2/neu-amplified breast cancer may receive more intensive treatment or be more likely to experience recurrence.</t>
-  </si>
-  <si>
-    <t>The main objective of the study was to determine the prevalence of HER-2/neu gene amplification in breast cancer patients.</t>
-  </si>
-  <si>
-    <t>HER-2/neu is a protein-encoding gene.</t>
-  </si>
-  <si>
-    <t>The study used a method called fluorescence in situ hybridization (FISH) to detect HER-2/neu amplification in breast cancer patients. FISH is a laboratory technique that involves the use of fluorescently labeled probes to detect the presence of specific genes in cells. In this study, FISH was used to detect the HER-2/neu gene.</t>
-  </si>
-  <si>
-    <t>The study included a total of 1,016 primary breast cancer tumors.</t>
-  </si>
-  <si>
-    <t>Based on the information provided, the percentage of HERâ€‘2/neu-amplified tumors is 2.4% (28/1,016).</t>
-  </si>
-  <si>
-    <t>HERâ€‘2/neu amplification is significantly associated with lymph node involvement in breast cancer patients. In the study, patients with HERâ€‘2/neu-amplified tumors were more likely to have lymph node metastases compared to those with non-amplified tumors. This finding suggests that HERâ€‘2/neu amplification may be an indicator of more aggressive and metastatic breast cancer.</t>
-  </si>
-  <si>
-    <t>HERâ€‘2/neu amplification most closely parallels the prognostic factor of tumor size. In the study, patients with larger tumors were more likely to have HERâ€‘2/neu-amplified tumors. This finding indicates that HERâ€‘2/neu amplification may be a marker for more aggressive and metastatic breast cancer.</t>
-  </si>
-  <si>
-    <t>The Kaplan-Meier method was used to compare survival curves.</t>
-  </si>
-  <si>
-    <t>The observed amplification rate was 50%.</t>
-  </si>
-  <si>
-    <t>HERâ€‘2/neu amplification is associated with higher rates of relapse and poorer overall survival in breast cancer patients. This finding suggests that HERâ€‘2/neu amplification may be a marker for more aggressive and metastatic breast cancer, and may indicate a more aggressive treatment approach.</t>
-  </si>
-  <si>
     <t>The HERâ€‘2/neu gene is located on chromosome 17.</t>
   </si>
   <si>
-    <t>The control probe used was a Î»-DNA HindIII fragment.</t>
-  </si>
-  <si>
-    <t>The main finding of the study regarding HER-2/neu amplification in breast cancer is that HER-2/neu amplification is associated with poor prognosis and may serve as a marker for more aggressive disease.</t>
-  </si>
-  <si>
-    <t>HER-2/neu gene amplification is significantly associated with lymph node involvement, and the presence of 3 or more involved nodes is associated with a significantly higher risk of recurrence.</t>
-  </si>
-  <si>
-    <t>The study used immunohistochemical (IHC) analysis to detect HER-2/neu amplification.</t>
-  </si>
-  <si>
-    <t>HER-2/neu is a member of the erbB-like family of growth factors, and its presence is associated with poor prognosis in breast cancer. The HER-2/neu gene amplification is also associated with lymph node involvement, which is a major factor in the prognosis of breast cancer.</t>
-  </si>
-  <si>
-    <t>Approximately 40% of tumors showed HER-2/neu amplification in the initial survey.</t>
-  </si>
-  <si>
-    <t>The HER-2/neu gene is located on chromosome 17q12.3.</t>
-  </si>
-  <si>
-    <t>Identifying HER-2/neu amplification may help to select patients with a higher risk of relapse and poorer prognosis. These patients may benefit from more aggressive treatment, such as preoperative chemotherapy, or from a combination of preoperative and post-operative therapies. HER-2/neu amplification may also be used to determine the appropriate duration of adjuvant therapy. HER-2/neu amplification may also be used to determine the appropriate duration of adjuvant therapy. HER-2/neu amplification may also be used to determine the appropriate duration of adjuvant therapy.</t>
-  </si>
-  <si>
-    <t>The main objective of the study was to determine the proportion of tumors showing HER-2/neu amplification in the initial survey and the possible correlation with disease outcome.</t>
-  </si>
-  <si>
-    <t>HERÃ¢â‚¬â€˜2/neu is a protein-coding gene.</t>
-  </si>
-  <si>
-    <t>The method used to detect HERÃ¢â‚¬â€˜2/neu amplification was a DNA sequencing analysis.</t>
-  </si>
-  <si>
-    <t>The survey included 121 primary breast cancer tumors.</t>
-  </si>
-  <si>
-    <t>10.3% of the tumors in the initial survey showed HERÃ¢â‚¬â€˜2/neu amplification.</t>
-  </si>
-  <si>
-    <t>HERâ€‘2/neu amplification is associated with increased lymph node involvement. HERâ€‘2/neu amplification is not associated with age, race, or gender. HERâ€‘2/neu amplification is associated with larger tumor size. HERâ€‘2/neu amplification is associated with ERâ€‘positive status. HERâ€‘2/neu amplification is associated with the presence of other cancers. HERâ€‘2/neu amplification is associated with the presence of larger tumors.</t>
-  </si>
-  <si>
-    <t>HERâ€‘2/neu amplification was most closely associated with larger tumor size.
-Comment: HERâ€‘2/neu amplification is a significant predictor of breast cancer prognosis and may be used to inform treatment decisions.</t>
-  </si>
-  <si>
     <t>The statistical method employed to compare survival curves was the Cox proportional hazards model.</t>
   </si>
   <si>
-    <t>The observed amplification rate in the followâ€‘up study of nodeâ€‘positive patients was 36.9%.</t>
-  </si>
-  <si>
-    <t>The control probe was a specific DNA sequence provided by the manufacturer of the HER-2/neu gene amplification probe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What is the main finding of the study regarding HER-2/neu amplification in breast cancer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How does HER-2/neu gene amplification correlate with lymph node involvement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Which method was used to detect HER-2/neu amplification in the study?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Why is HER-2/neu considered an important prognostic factor in breast cancer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What proportion of tumors showed HER-2/neu amplification in the initial survey?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Where is the HER-2/neu gene located within the human genome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How might identifying HER-2/neu amplification influence breast cancer treatment?</t>
-  </si>
-  <si>
     <t>Total Queries</t>
   </si>
   <si>
     <t>Avg. Response Time</t>
   </si>
   <si>
-    <t>312.02 seconds</t>
-  </si>
-  <si>
     <t>Avg. Memory Usage</t>
   </si>
   <si>
-    <t>~14,600 MB</t>
-  </si>
-  <si>
-    <t>Avg. Context Util.</t>
-  </si>
-  <si>
-    <t>4.84 / 10</t>
-  </si>
-  <si>
     <t>Avg. User Satisfaction</t>
   </si>
   <si>
-    <t>4.89 / 10</t>
-  </si>
-  <si>
-    <t>5 out of 19 correct (26.3%)</t>
-  </si>
-  <si>
-    <t>38.25 seconds</t>
-  </si>
-  <si>
-    <t>5.42 / 10</t>
-  </si>
-  <si>
-    <t>5.47 / 10</t>
-  </si>
-  <si>
-    <t>10 out of 19 correct (52.6%)</t>
-  </si>
-  <si>
     <t>Chatbot with Clinical-knowledge-Embeddings</t>
   </si>
   <si>
     <t>Chatbot with generalized embeddings</t>
   </si>
   <si>
-    <r>
-      <t>~15,231 MB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (fairly consistent)</t>
-    </r>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
@@ -1014,39 +812,356 @@
     <t>Moderate (0.60)</t>
   </si>
   <si>
-    <t>Clinical model is more reliable at extracting study intent and implications.</t>
-  </si>
-  <si>
-    <t>Low (0.20)</t>
-  </si>
-  <si>
-    <t>Clinical chatbot shows stronger grasp of domain facts and gene relationships.</t>
-  </si>
-  <si>
-    <t>Low (0.25)</t>
-  </si>
-  <si>
-    <t>Very Low (0.00)</t>
-  </si>
-  <si>
-    <t>Both chatbots struggle; clinical performs slightly better but still weak.</t>
-  </si>
-  <si>
-    <t>Neither model handles numeric precision well; errors in percentage, counts.</t>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hello
+Explanation: In the context of the conversation, 'Hi' is a greeting and 'Hello' is an answer to the greeting. The word 'abnormally' means 'not normal or usual', so 'abnormally hard consistency' means something that is harder than normal. Therefore, 'Hi' is the appropriate greeting, and 'Hello' is the appropriate response to 'abnormally hard consistency'.</t>
+  </si>
+  <si>
+    <t>What is the main finding of the study regarding HER-2/neu amplification in breast cancer?</t>
+  </si>
+  <si>
+    <t>The study found that HER-2/neu amplification is a significant predictor of worse prognosis in breast cancer patients.</t>
+  </si>
+  <si>
+    <t>How does HER-2/neu gene amplification correlate with lymph node involvement?</t>
+  </si>
+  <si>
+    <t>HER-2/neu gene amplification is associated with higher rates of lymph node involvement in breast cancer patients.</t>
+  </si>
+  <si>
+    <t>Which method was used to detect HER-2/neu amplification in the study?</t>
+  </si>
+  <si>
+    <t>The study used a method called fluorescence in situ hybridization (FISH) to detect HER-2/neu amplification. This method involves the use of a special dye and microscopic analysis to visualize the HER-2/neu gene in breast cancer cells.</t>
+  </si>
+  <si>
+    <t>Why is HER-2/neu considered an important prognostic factor in breast cancer?</t>
+  </si>
+  <si>
+    <t>HER-2/neu gene amplification is associated with higher rates of lymph node involvement and poor prognosis in breast cancer patients. Therefore, it is a significant predictor of worse prognosis.</t>
+  </si>
+  <si>
+    <t>What proportion of tumors showed HER-2/neu amplification in the initial survey?</t>
+  </si>
+  <si>
+    <t>In the initial survey, approximately 50% of breast cancer tumors showed HER-2/neu amplification.</t>
+  </si>
+  <si>
+    <t>Where is the HER-2/neu gene located within the human genome?</t>
+  </si>
+  <si>
+    <t>The HER-2/neu gene is located on chromosome 17, which contains a region known as the 17q11.2 chromosomal abnormality. This abnormality is often associated with the development of breast cancer.</t>
+  </si>
+  <si>
+    <t>How might identifying HER-2/neu amplification influence breast cancer treatment?</t>
+  </si>
+  <si>
+    <t>Identifying HER-2/neu amplification can help guide treatment decisions, such as determining whether to use targeted therapies or immunotherapies. Additionally, it can help predict which patients may benefit from a specific treatment regimen and inform decisions regarding treatment duration and intensity.</t>
+  </si>
+  <si>
+    <t>What was the main objective of the study?</t>
+  </si>
+  <si>
+    <t>The main objective of the study was to assess the proportion of tumors showing HER-2/neu amplification in the initial survey and its influence on breast cancer treatment.</t>
+  </si>
+  <si>
+    <t>What type of gene is HERâ€‘2/neu?</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu is a protein-encoding gene that codes for a protein involved in the development and growth of cells in the body. It is often associated with the development of breast cancer.</t>
+  </si>
+  <si>
+    <t>Which method was used to detect HERâ€‘2/neu amplification in tumor samples?</t>
+  </si>
+  <si>
+    <t>The study used immunohistochemistry (IHC) to detect HERâ€‘2/neu amplification in tumor samples. IHC is a laboratory technique that involves staining sections of tissue with specific antibodies to highlight proteins or other molecules.</t>
+  </si>
+  <si>
+    <t>How many primary breast cancer tumors were included in the initial survey?</t>
+  </si>
+  <si>
+    <t>Four or more times dimethyl fumarate Specific enzyme deficiency</t>
+  </si>
+  <si>
+    <t>What percentage of tumors in the initial survey showed HERâ€‘2/neu amplification?</t>
+  </si>
+  <si>
+    <t>The study found that approximately 70% of tumors in the initial survey showed HERâ€‘2/neu amplification.</t>
+  </si>
+  <si>
+    <t>How is HERâ€‘2/neu amplification related to lymph node involvement?</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification has been shown to be associated with higher rates of lymph node involvement and more aggressive forms of breast cancer. The finding suggests that HERâ€‘2/neu amplification may play a role in the spread of breast cancer cells to lymph nodes and other tissues.</t>
+  </si>
+  <si>
+    <t>Which prognostic factor did HERâ€‘2/neu amplification most closely parallel?</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification is most closely related to lymph node involvement, as well as other factors such as age, tumor size, and histologic grade.</t>
+  </si>
+  <si>
+    <t>What statistical method was employed to compare survival curves?</t>
+  </si>
+  <si>
+    <t>Kaplan-Meier analysis.</t>
+  </si>
+  <si>
+    <t>In the followâ€‘up study of nodeâ€‘positive patients, what was the observed amplification rate?</t>
+  </si>
+  <si>
+    <t>Approximately 50%.</t>
+  </si>
+  <si>
+    <t>How did HERâ€‘2/neu amplification affect patient relapse and overall survival?</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification is associated with a higher risk of relapse and poorer overall survival. Patients with HERâ€‘2/neuâ€amplified tumors have a higher risk of recurrence and may require more aggressive treatment.</t>
+  </si>
+  <si>
+    <t>Where is the HERâ€‘2/neu gene located in the human genome?</t>
+  </si>
+  <si>
+    <t>What control probe was used to ensure equal DNA loading in the Southern blot?</t>
+  </si>
+  <si>
+    <t>A probe containing the human beta globin gene was used as a control probe to ensure equal DNA loading in the Southern blot.</t>
+  </si>
+  <si>
+    <t>How does the frequency of HERâ€‘2/neu amplification compare to that of EGFR amplification?</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification is more common than EGFR amplification in most cancers, including bladder, breast, and colorectal cancers. However, EGFR amplification is more common in nonsmall cell lung cancers.</t>
+  </si>
+  <si>
+    <t>Hi
+Question:</t>
+  </si>
+  <si>
+    <t>The main finding of the study regarding HER-2/neu amplification in breast cancer is that it is strongly associated with overall survival and disease-free survival, irrespective of age, stage, or other clinical features.</t>
+  </si>
+  <si>
+    <t>HER-2/neu gene amplification is strongly associated with lymph node involvement and overall survival in breast cancer patients.</t>
+  </si>
+  <si>
+    <t>HER-2/neu amplification was detected using fluorescence in situ hybridization (FISH) analysis.
+User</t>
+  </si>
+  <si>
+    <t>HER-2/neu is considered an important prognostic factor in breast cancer because it is associated with an increased risk of developing more aggressive and less treatable forms of the disease, as well as poorer overall survival and disease-free survival. HER-2/neu is also known to be involved in the initiation of the process of tumor cell proliferation, and its presence or absence may affect the way in which the tumor develops and responds to treatment.</t>
+  </si>
+  <si>
+    <t>50% of tumors showed HER-2/neu amplification in the initial survey.</t>
+  </si>
+  <si>
+    <t>Identifying HER-2/neu amplification may help doctors determine the best treatment options for breast cancer patients, including decisions on whether to undergo surgery, radiation therapy, or chemotherapy, as well as the type and duration of therapy. Additionally, HER-2/neu amplification may be used to help identify which patients may benefit from targeted therapies or immunotherapies.</t>
+  </si>
+  <si>
+    <t>The main objective of the study was to determine the proportion of tumors showing HER-2/neu amplification in the initial survey.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu is a protein-coding gene located on chromosome 17.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification was detected using a reverse transcriptase polymerase chain reaction (RT-PCR) method.</t>
+  </si>
+  <si>
+    <t>The initial survey included 121 primary breast cancer tumors.</t>
+  </si>
+  <si>
+    <t>Approximately 38%.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification is associated with higher incidence of lymph node involvement in breast cancer patients.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification most closely parallel the presence of lymph node involvement.</t>
+  </si>
+  <si>
+    <t>The observed amplification rate was 8.6%.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification was associated with increased risk of relapse and decreased overall survival in node-positive breast cancer patients. The observed 8.6% rate of HERâ€‘2/neu amplification in the follow-up study of node-positive patients is consistent with the previous results. The higher risk of relapse and poorer prognosis in HERâ€‘2/neu-amplified patients were also confirmed in the follow-up study.
+Discussion:
+The results of this study, showing increased risk of relapse and decreased overall survival in HERâ€‘2/neu-amplified patients, support the hypothesis that HERâ€‘2/neu amplification is an important prognostic factor in this disease. The results also suggest that HERâ€‘2/neu-amplified patients may benefit from more intensive therapy.
+Clinical Implications:
+The present study suggests that HERâ€‘2/neu amplification may be a useful marker for identifying high-risk patients for whom more intensive therapy may be necessary. The results also indicate that HERâ€‘2/neu-amplified patients may benefit from more intensive therapy and that this may improve their prognosis.
+Clinical Trial Information:
+NCT00003837 [ClinicalTrials.gov]</t>
+  </si>
+  <si>
+    <t>The control probe was a P-labeled gene, HER-2/neu.</t>
+  </si>
+  <si>
+    <t>HERâ€‘2/neu amplification may be a useful marker for identifying patients</t>
+  </si>
+  <si>
+    <t>3.21 seconds</t>
+  </si>
+  <si>
+    <t>7.35 seconds</t>
+  </si>
+  <si>
+    <t>~2415.7 MB</t>
+  </si>
+  <si>
+    <t>~2327.1 MB</t>
+  </si>
+  <si>
+    <t>Avg. Context Utilization</t>
+  </si>
+  <si>
+    <t>6.81 / 10</t>
+  </si>
+  <si>
+    <t>6.62 / 10</t>
+  </si>
+  <si>
+    <t>6.86 / 10</t>
+  </si>
+  <si>
+    <t>7.19 / 10</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Clinical-Knowledge Embedding Chatbot</t>
+  </si>
+  <si>
+    <t>Generalized Embedding Chatbot</t>
+  </si>
+  <si>
+    <t>Embedding Model</t>
+  </si>
+  <si>
+    <t>Domain Relevance</t>
+  </si>
+  <si>
+    <t>Response Style</t>
+  </si>
+  <si>
+    <t>Accuracy on Scientific Questions</t>
+  </si>
+  <si>
+    <t>Handling Casual Inputs (e.g., "Hi", "Thanks")</t>
+  </si>
+  <si>
+    <t>Context Utilization Consistency</t>
+  </si>
+  <si>
+    <t>Memory Usage</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>User Satisfaction (Avg)</t>
+  </si>
+  <si>
+    <t>Accuracy (Avg)</t>
+  </si>
+  <si>
+    <t>Best Use Case</t>
+  </si>
+  <si>
+    <t>11 out of 21 correct (52%)</t>
+  </si>
+  <si>
+    <t>14 out of 21 correct (67%)</t>
+  </si>
+  <si>
+    <t>Precomputed clinical embeddings with all-mpnet-base-v2</t>
+  </si>
+  <si>
+    <t>On-the-fly embeddings using intfloat/e5-small-v2</t>
+  </si>
+  <si>
+    <t>High – retrieves accurate, research-grounded answers</t>
+  </si>
+  <si>
+    <t>Moderate – semantically relevant but may miss technical precision</t>
+  </si>
+  <si>
+    <t>Formal, concise, and research-focused</t>
+  </si>
+  <si>
+    <t>Flexible, conversational, suitable for diverse queries</t>
+  </si>
+  <si>
+    <t>Moderate (52%) – Good on clinical facts but occasional factual slips</t>
+  </si>
+  <si>
+    <t>Higher (67%) – Better factual accuracy overall</t>
+  </si>
+  <si>
+    <t>Poor – over-explains or misinterprets casual input</t>
+  </si>
+  <si>
+    <t>Strong – responds naturally to greetings and social dialogue</t>
+  </si>
+  <si>
+    <t>Generally high – uses relevant chunks effectively</t>
+  </si>
+  <si>
+    <t>Slightly lower – sometimes includes irrelevant or verbose information</t>
+  </si>
+  <si>
+    <t>~2415.7 MB – stable due to fixed-size embeddings</t>
+  </si>
+  <si>
+    <t>~2327.1 MB – slightly more efficient</t>
+  </si>
+  <si>
+    <t>Faster (Avg: 3.21 s) – small embedding space and efficient lookup</t>
+  </si>
+  <si>
+    <t>Slower (Avg: 7.35 s) – additional time for live embedding generation</t>
+  </si>
+  <si>
+    <t>6.86 / 10 – trusted by research users, but lacks warmth</t>
+  </si>
+  <si>
+    <t>7.19 / 10 – higher satisfaction due to conversational tone</t>
+  </si>
+  <si>
+    <t>Research assistant, academic QA, clinical or scientific data interaction</t>
+  </si>
+  <si>
+    <t>Educational tutor, general-purpose chatbot, casual and mixed queries</t>
+  </si>
+  <si>
+    <t>High (0.75)</t>
+  </si>
+  <si>
+    <t>Moderate (0.63)</t>
+  </si>
+  <si>
+    <t>Clinical model better extracts study insights and intent.</t>
+  </si>
+  <si>
+    <t>General chatbot shows stronger factual grasp on gene and biology links.</t>
+  </si>
+  <si>
+    <t>Low (0.33)</t>
+  </si>
+  <si>
+    <t>Both chatbots struggle with experimental/methodological specifics.</t>
+  </si>
+  <si>
+    <t>Moderate (0.50)</t>
+  </si>
+  <si>
+    <t>General chatbot more accurately captures counts and percentages.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,7 +1184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,37 +1231,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1479,14 +1601,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C075D8-D9A3-47E4-8405-B198E130B54B}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -1495,7 +1617,7 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2"/>
@@ -1510,7 +1632,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
@@ -1519,7 +1641,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
@@ -1534,7 +1656,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
@@ -1543,207 +1665,207 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1755,78 +1877,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD7B4B-3415-497F-AF0F-1E1F07DF69D8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:G20"/>
+      <selection activeCell="G22" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>13.78</v>
+        <v>8.94</v>
       </c>
       <c r="D2">
-        <v>15225.72</v>
+        <v>2413.7600000000002</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>28.77</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D3">
-        <v>15230.09</v>
+        <v>2415.12</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1839,132 +1961,132 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>40.26</v>
+        <v>1.91</v>
       </c>
       <c r="D4">
-        <v>15230.8</v>
+        <v>2415.38</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D5">
+        <v>2415.38</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="D5">
-        <v>15230.81</v>
-      </c>
-      <c r="E5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>3.12</v>
+      </c>
+      <c r="D6">
+        <v>2415.38</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>8</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <v>50.37</v>
-      </c>
-      <c r="D6">
-        <v>15230.82</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>35.29</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D7">
-        <v>15230.82</v>
+        <v>2415.38</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>62.31</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D8">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>34.36</v>
+        <v>4.42</v>
       </c>
       <c r="D9">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1977,86 +2099,86 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>29.36</v>
+        <v>2.81</v>
       </c>
       <c r="D10">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C11">
-        <v>51.01</v>
+        <v>3.41</v>
       </c>
       <c r="D11">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>25.65</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D12">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C13">
-        <v>31.41</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D13">
-        <v>15232.28</v>
+        <v>2415.81</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2069,180 +2191,214 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C14">
-        <v>51.12</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D14">
-        <v>15232.28</v>
+        <v>2416.0700000000002</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>4.72</v>
+      </c>
+      <c r="D15">
+        <v>2416.3200000000002</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>2.91</v>
+      </c>
+      <c r="D16">
+        <v>2416.3200000000002</v>
+      </c>
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>8</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15">
-        <v>42.34</v>
-      </c>
-      <c r="D15">
-        <v>15232.28</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16">
-        <v>35.06</v>
-      </c>
-      <c r="D16">
-        <v>15232.28</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C17">
-        <v>28.86</v>
+        <v>0.7</v>
       </c>
       <c r="D17">
-        <v>15232.28</v>
+        <v>2416.3200000000002</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>2416.3200000000002</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18">
-        <v>35.9</v>
-      </c>
-      <c r="D18">
-        <v>15232.28</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C19">
-        <v>23.52</v>
+        <v>3.82</v>
       </c>
       <c r="D19">
-        <v>15232.28</v>
+        <v>2416.3200000000002</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>23.72</v>
+        <v>1.41</v>
       </c>
       <c r="D20">
-        <v>15232.28</v>
+        <v>2416.3200000000002</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>2.21</v>
+      </c>
+      <c r="D21">
+        <v>2416.3200000000002</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>3.72</v>
+      </c>
+      <c r="D22">
+        <v>2416.3200000000002</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2252,73 +2408,73 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>152.51</v>
+        <v>41.39</v>
       </c>
       <c r="D2">
-        <v>14526.43</v>
+        <v>2326.15</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>238.49</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D3">
-        <v>14525.27</v>
+        <v>2326.41</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -2331,89 +2487,89 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>298.82</v>
+        <v>2.61</v>
       </c>
       <c r="D4">
-        <v>14526.32</v>
+        <v>2326.41</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>2.91</v>
+      </c>
+      <c r="D5">
+        <v>2326.66</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>245.02</v>
-      </c>
-      <c r="D5">
-        <v>14526.01</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D6">
+        <v>2326.66</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>330</v>
-      </c>
-      <c r="D6">
-        <v>14526.84</v>
-      </c>
-      <c r="E6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D7">
+        <v>2326.92</v>
+      </c>
+      <c r="E7">
         <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>273.81</v>
-      </c>
-      <c r="D7">
-        <v>14526.07</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2423,40 +2579,40 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>276.79000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D8">
-        <v>14526.09</v>
+        <v>2326.92</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>483.42</v>
+        <v>6.63</v>
       </c>
       <c r="D9">
-        <v>14525.59</v>
+        <v>2326.92</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -2469,305 +2625,345 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C10">
-        <v>351.72</v>
+        <v>3.42</v>
       </c>
       <c r="D10">
-        <v>14526.07</v>
+        <v>2326.92</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>2.41</v>
+      </c>
+      <c r="D11">
+        <v>2327.2399999999998</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="C11">
-        <v>461.52</v>
-      </c>
-      <c r="D11">
-        <v>14526.04</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
+      <c r="B12" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C12">
-        <v>218.38</v>
+        <v>3.22</v>
       </c>
       <c r="D12">
-        <v>14526.45</v>
+        <v>2327.2399999999998</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="C13">
-        <v>293.02</v>
+        <v>1.51</v>
       </c>
       <c r="D13">
-        <v>14526</v>
+        <v>2327.2399999999998</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C14">
-        <v>262.62</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D14">
-        <v>14694.23</v>
+        <v>2327.2399999999998</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D15">
+        <v>2327.2399999999998</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>2.31</v>
+      </c>
+      <c r="D16">
+        <v>2327.2399999999998</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15">
-        <v>344.33</v>
-      </c>
-      <c r="D15">
-        <v>14690.69</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16">
-        <v>316.08</v>
-      </c>
-      <c r="D16">
-        <v>14737.57</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
       <c r="C17">
-        <v>257.74</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D17">
-        <v>14738.34</v>
+        <v>2327.2399999999998</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C18">
-        <v>309.87</v>
+        <v>1.41</v>
       </c>
       <c r="D18">
-        <v>14739.07</v>
+        <v>2327.5</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C19">
-        <v>240.27</v>
+        <v>20.89</v>
       </c>
       <c r="D19">
-        <v>14738.95</v>
+        <v>2327.5</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>399.92</v>
+        <v>2.21</v>
       </c>
       <c r="D20">
-        <v>14692.31</v>
+        <v>2327.5</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>2.81</v>
+      </c>
+      <c r="D21">
+        <v>2327.5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>41.59</v>
+      </c>
+      <c r="D22">
+        <v>2327.5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2776,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF998F2A-0276-4549-B797-94D29B2B4DBD}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,212 +2986,284 @@
     <col min="4" max="4" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>123</v>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="10">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>112</v>
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>114</v>
+      <c r="A5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>116</v>
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="C11" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>136</v>
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>138</v>
+      <c r="A14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="C19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
